--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1390363.832832619</v>
+        <v>-1395077.743786984</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516702</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13481868.6608606</v>
+        <v>13479508.74329893</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>119.6042788303904</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -707,16 +707,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>101.3019968421653</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -789,16 +789,16 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>197.9987431849065</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>166.300995544789</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>115.8655616304599</v>
       </c>
       <c r="E4" t="n">
-        <v>77.75531124764781</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +908,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>303.5571181742253</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>71.28963065225425</v>
       </c>
     </row>
     <row r="6">
@@ -984,10 +984,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226574</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104614796</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>40.80831511106827</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>91.83955098126997</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>321.8233699144156</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>159.6922219255737</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>60.16075720011329</v>
+        <v>12.87935757313669</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>158.0425081562647</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>14.13284247830427</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
@@ -1430,13 +1430,13 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>101.3554131236943</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1588,10 +1588,10 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>131.6226903740158</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.0562487526883</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>124.566150293889</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>25.94974245575011</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
@@ -1825,13 +1825,13 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>105.5853595774879</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954278</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568057</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291031</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838871</v>
+        <v>24.17382596574996</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828884</v>
+        <v>52.06849973565008</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162026</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431716</v>
+        <v>70.5760187316784</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459957</v>
+        <v>55.72314698196081</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643929</v>
+        <v>41.29686219380054</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193184</v>
+        <v>41.22330424667965</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908567</v>
+        <v>42.97275566644691</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147781</v>
+        <v>53.79159358883905</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804985</v>
+        <v>41.14384575541109</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922178</v>
+        <v>18.98356133658302</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736777</v>
+        <v>9.882059701038941</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920501</v>
+        <v>88.00800320656626</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133771</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404469</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.160640748063</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947756</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G35" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X35" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1414.473495167765</v>
+        <v>928.4833248820494</v>
       </c>
       <c r="C2" t="n">
-        <v>1414.473495167765</v>
+        <v>928.4833248820494</v>
       </c>
       <c r="D2" t="n">
-        <v>1414.473495167765</v>
+        <v>928.4833248820494</v>
       </c>
       <c r="E2" t="n">
-        <v>1011.889970284309</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="F2" t="n">
-        <v>594.995531814287</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222167</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407456</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>895.7983071407456</v>
+        <v>1048.426217084556</v>
       </c>
       <c r="N2" t="n">
-        <v>1423.609590778208</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465275</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596797</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023267</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023267</v>
+        <v>1870.655869043496</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.289453582684</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U2" t="n">
-        <v>1810.964204247163</v>
+        <v>1391.402537037511</v>
       </c>
       <c r="V2" t="n">
-        <v>1810.964204247163</v>
+        <v>1049.29572774103</v>
       </c>
       <c r="W2" t="n">
-        <v>1810.964204247163</v>
+        <v>1049.29572774103</v>
       </c>
       <c r="X2" t="n">
-        <v>1810.964204247163</v>
+        <v>1049.29572774103</v>
       </c>
       <c r="Y2" t="n">
-        <v>1414.473495167765</v>
+        <v>1049.29572774103</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653844</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653844</v>
+        <v>987.9600536479808</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875476</v>
+        <v>1155.938290490838</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466458</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182855</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>2015.935249535679</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>476.1472529396809</v>
+        <v>484.1191562827684</v>
       </c>
       <c r="C4" t="n">
-        <v>476.1472529396809</v>
+        <v>484.1191562827684</v>
       </c>
       <c r="D4" t="n">
-        <v>476.1472529396809</v>
+        <v>367.08323544392</v>
       </c>
       <c r="E4" t="n">
-        <v>397.6065345077134</v>
+        <v>367.08323544392</v>
       </c>
       <c r="F4" t="n">
-        <v>397.6065345077134</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G4" t="n">
-        <v>229.352480607159</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865295</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865295</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>742.1265981188567</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U4" t="n">
-        <v>742.1265981188567</v>
+        <v>707.231217466125</v>
       </c>
       <c r="V4" t="n">
-        <v>476.1472529396809</v>
+        <v>707.231217466125</v>
       </c>
       <c r="W4" t="n">
-        <v>476.1472529396809</v>
+        <v>707.231217466125</v>
       </c>
       <c r="X4" t="n">
-        <v>476.1472529396809</v>
+        <v>707.231217466125</v>
       </c>
       <c r="Y4" t="n">
-        <v>476.1472529396809</v>
+        <v>484.1191562827684</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>362.9730455155098</v>
+        <v>929.940204038998</v>
       </c>
       <c r="C5" t="n">
-        <v>362.9730455155098</v>
+        <v>929.940204038998</v>
       </c>
       <c r="D5" t="n">
-        <v>362.9730455155098</v>
+        <v>929.940204038998</v>
       </c>
       <c r="E5" t="n">
-        <v>362.9730455155098</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>350.1190110858916</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475491</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475491</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310448</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310448</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1085.386573341137</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="N5" t="n">
-        <v>1613.197856978599</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465275</v>
+        <v>1726.974845685402</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596797</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023267</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964318</v>
+        <v>1870.655869043496</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523735</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958333</v>
+        <v>1391.402537037511</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661852</v>
+        <v>1391.402537037511</v>
       </c>
       <c r="W5" t="n">
-        <v>1148.916359661852</v>
+        <v>1391.402537037511</v>
       </c>
       <c r="X5" t="n">
-        <v>759.4637545949087</v>
+        <v>1001.949931970568</v>
       </c>
       <c r="Y5" t="n">
-        <v>362.9730455155098</v>
+        <v>929.940204038998</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021406</v>
+        <v>556.1927859813184</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622328</v>
+        <v>405.5385555414106</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837131</v>
+        <v>275.4495881628909</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946009</v>
+        <v>139.0030972737786</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777327</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>638.1843148743791</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>921.5731989359468</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591874</v>
+        <v>921.5731989359468</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182855</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734587</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413229</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784296</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917583</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675947</v>
+        <v>887.3033373467724</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431019</v>
+        <v>707.9891204222797</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>742.1265981188567</v>
+        <v>240.135570830791</v>
       </c>
       <c r="C7" t="n">
-        <v>571.9214801848459</v>
+        <v>240.135570830791</v>
       </c>
       <c r="D7" t="n">
-        <v>571.9214801848459</v>
+        <v>240.135570830791</v>
       </c>
       <c r="E7" t="n">
-        <v>571.9214801848459</v>
+        <v>240.135570830791</v>
       </c>
       <c r="F7" t="n">
-        <v>530.7009598706355</v>
+        <v>240.135570830791</v>
       </c>
       <c r="G7" t="n">
-        <v>362.4469059700811</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315751</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865295</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475491</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="U7" t="n">
-        <v>742.1265981188567</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="V7" t="n">
-        <v>742.1265981188567</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="W7" t="n">
-        <v>742.1265981188567</v>
+        <v>332.902794044195</v>
       </c>
       <c r="X7" t="n">
-        <v>742.1265981188567</v>
+        <v>332.902794044195</v>
       </c>
       <c r="Y7" t="n">
-        <v>742.1265981188567</v>
+        <v>240.135570830791</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1327.468549724324</v>
+        <v>1004.842378447763</v>
       </c>
       <c r="C8" t="n">
-        <v>934.2930482272545</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="D8" t="n">
-        <v>934.2930482272545</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="E8" t="n">
-        <v>531.7095233437991</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,10 +4802,10 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>173.6308686433316</v>
       </c>
       <c r="L8" t="n">
         <v>666.9511603618604</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780699</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>1652.542660748986</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="X8" t="n">
-        <v>1327.468549724324</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="Y8" t="n">
-        <v>1327.468549724324</v>
+        <v>1405.33712415916</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4890,13 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>589.1399514439072</v>
+        <v>416.5389234010152</v>
       </c>
       <c r="C10" t="n">
-        <v>589.1399514439072</v>
+        <v>246.3338054670044</v>
       </c>
       <c r="D10" t="n">
-        <v>589.1399514439072</v>
+        <v>90.70069236951912</v>
       </c>
       <c r="E10" t="n">
-        <v>528.3715098276311</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>589.1399514439072</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>589.1399514439072</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>589.1399514439072</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W10" t="n">
-        <v>589.1399514439072</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X10" t="n">
-        <v>589.1399514439072</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y10" t="n">
-        <v>589.1399514439072</v>
+        <v>601.7469420923164</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1528.935834922734</v>
+        <v>1691.856237801877</v>
       </c>
       <c r="C11" t="n">
-        <v>1207.556608571858</v>
+        <v>1370.477011451002</v>
       </c>
       <c r="D11" t="n">
-        <v>893.9117549347201</v>
+        <v>1056.832157813863</v>
       </c>
       <c r="E11" t="n">
-        <v>563.1245051974583</v>
+        <v>726.0449080766011</v>
       </c>
       <c r="F11" t="n">
-        <v>563.1245051974583</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G11" t="n">
-        <v>221.7580248316555</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>3091.680786742842</v>
       </c>
       <c r="U11" t="n">
-        <v>2770.295603492179</v>
+        <v>2907.724332323635</v>
       </c>
       <c r="V11" t="n">
-        <v>2499.985069341891</v>
+        <v>2637.413798173348</v>
       </c>
       <c r="W11" t="n">
-        <v>2499.985069341891</v>
+        <v>2338.21103828783</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.328739421142</v>
+        <v>2020.55470836708</v>
       </c>
       <c r="Y11" t="n">
-        <v>1857.634305487937</v>
+        <v>2020.55470836708</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.3917504485927</v>
+        <v>246.0576301327656</v>
       </c>
       <c r="C13" t="n">
-        <v>376.3917504485927</v>
+        <v>147.6487873449487</v>
       </c>
       <c r="D13" t="n">
-        <v>376.3917504485927</v>
+        <v>147.6487873449487</v>
       </c>
       <c r="E13" t="n">
-        <v>292.6292134539891</v>
+        <v>147.6487873449487</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5218,7 +5218,7 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
@@ -5227,22 +5227,22 @@
         <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1211.228913746573</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>997.5863971346677</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V13" t="n">
-        <v>803.4033271016859</v>
+        <v>741.8597555915628</v>
       </c>
       <c r="W13" t="n">
-        <v>803.4033271016859</v>
+        <v>530.3256286689343</v>
       </c>
       <c r="X13" t="n">
-        <v>641.1192800308629</v>
+        <v>397.3734161699284</v>
       </c>
       <c r="Y13" t="n">
-        <v>489.8034939937001</v>
+        <v>246.0576301327656</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1439.569462514561</v>
+        <v>1643.666683476873</v>
       </c>
       <c r="C14" t="n">
-        <v>1118.190236163685</v>
+        <v>1322.287457125997</v>
       </c>
       <c r="D14" t="n">
-        <v>804.5453825265472</v>
+        <v>1008.642603488859</v>
       </c>
       <c r="E14" t="n">
-        <v>473.7581327892852</v>
+        <v>677.8553537515972</v>
       </c>
       <c r="F14" t="n">
-        <v>128.6599694654568</v>
+        <v>332.7571904277683</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>332.7571904277683</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2980.131990969525</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2980.131990969525</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2709.821456819237</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W14" t="n">
-        <v>2410.618696933719</v>
+        <v>2290.021483962825</v>
       </c>
       <c r="X14" t="n">
-        <v>2092.962367012969</v>
+        <v>1972.365154042076</v>
       </c>
       <c r="Y14" t="n">
-        <v>1768.267933079764</v>
+        <v>1972.365154042076</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>378.9738643893075</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>862.5399502876207</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1490.311599914302</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>499.0613902693676</v>
+        <v>472.9238301596408</v>
       </c>
       <c r="C16" t="n">
-        <v>472.8495292029533</v>
+        <v>472.9238301596408</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029533</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083497</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="G16" t="n">
         <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245448</v>
       </c>
       <c r="V16" t="n">
-        <v>872.879564262819</v>
+        <v>741.8597555915627</v>
       </c>
       <c r="W16" t="n">
-        <v>661.3454373401905</v>
+        <v>741.8597555915627</v>
       </c>
       <c r="X16" t="n">
-        <v>499.0613902693676</v>
+        <v>579.5757085207397</v>
       </c>
       <c r="Y16" t="n">
-        <v>499.0613902693676</v>
+        <v>472.9238301596408</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975448</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5546,16 +5546,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5604,13 +5604,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1606.310991511064</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,19 +5674,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222407</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960405</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5838,16 +5838,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5914,22 +5914,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
         <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5969,10 +5969,10 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
         <v>542.6718405099318</v>
@@ -5981,16 +5981,16 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924267</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411597</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6005,7 +6005,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
         <v>3105.956385205776</v>
@@ -6017,16 +6017,16 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6063,25 +6063,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.8582737663419</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072671</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462916</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974522</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6227,13 +6227,13 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958356</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614364</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N26" t="n">
         <v>2453.253063755554</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6315,10 +6315,10 @@
         <v>1504.441740534771</v>
       </c>
       <c r="N27" t="n">
-        <v>1986.079025206788</v>
+        <v>2160.21971174533</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
         <v>2391.700393923186</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
@@ -6382,16 +6382,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6476,10 +6476,10 @@
         <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6549,16 +6549,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463661</v>
+        <v>904.3560533993079</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108108</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.474102218932</v>
+        <v>91.97314162835519</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>255.2650543744581</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>725.8995309769027</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1219.219822695432</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1876.872843314995</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2404.684126952457</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315957</v>
+        <v>2844.723727844786</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174549</v>
+        <v>3192.911219976308</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042568</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038078</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908493</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397275</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761238</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394121</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291773</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154195</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004161</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076156</v>
+        <v>387.2942816645716</v>
       </c>
       <c r="L33" t="n">
-        <v>553.1136341390747</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="M33" t="n">
-        <v>1180.885283765756</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965115</v>
+        <v>365.6713676929725</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918654</v>
+        <v>309.3853606404868</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237449</v>
+        <v>267.6713584245267</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123122</v>
+        <v>226.0316571652543</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546499</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834602</v>
+        <v>128.289890240723</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431891</v>
+        <v>86.73045008374213</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803363</v>
+        <v>231.2685546898323</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812065</v>
+        <v>507.0483151386148</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458822</v>
+        <v>693.3398934768788</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770914</v>
+        <v>982.3291861103378</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.26906814587</v>
+        <v>1145.033953152046</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649519</v>
+        <v>1376.562239503607</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.11361574664</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308582</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420496</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518095</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250199</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395496</v>
+        <v>835.7257283273692</v>
       </c>
       <c r="W34" t="n">
-        <v>733.392329300092</v>
+        <v>666.314437140072</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124399</v>
+        <v>546.1532258045802</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758448</v>
+        <v>436.9602755027486</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6965,7 +6965,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188067</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840155</v>
@@ -7023,13 +7023,13 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,46 +7099,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
         <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7260,16 +7260,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102856</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485496</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>381.858273766342</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M42" t="n">
-        <v>1009.629923393023</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,49 +7570,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
         <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,7 +7670,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
         <v>3071.119566829236</v>
@@ -7679,13 +7679,13 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>658.8001958221562</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>1286.571845448837</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369568</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072661</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229973</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222416</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960414</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343054</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>647.8084594790944</v>
       </c>
       <c r="O2" t="n">
-        <v>369.9076017544678</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8061,22 +8061,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>93.76504805760072</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>611.1777065035427</v>
       </c>
       <c r="N3" t="n">
-        <v>629.067855288603</v>
+        <v>255.047099564123</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321637</v>
+        <v>400.7145237006725</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>178.4043025621535</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,22 +8295,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>378.6385200912995</v>
       </c>
       <c r="N6" t="n">
-        <v>554.040518931795</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>270.6522400901343</v>
       </c>
       <c r="L8" t="n">
-        <v>270.4260094517309</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8538,16 +8538,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>153.277245266684</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8699,13 +8699,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8775,13 +8775,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9003,25 +9003,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>409.6522249143353</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O18" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9486,7 +9486,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>577.006990218999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,22 +9717,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9963,13 +9963,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>571.8744206036789</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>326.5064297756118</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10197,19 +10197,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,16 +10428,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167037</v>
       </c>
       <c r="N33" t="n">
-        <v>373.1055958271596</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,16 +10671,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10908,19 +10908,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,25 +11136,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>301.8549375253374</v>
+        <v>431.8341765764318</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>258.8480380294549</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>91.72139937817759</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362857</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>136.0544415431413</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>60.92813579502172</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>29.03851622609895</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>47.70765878175399</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>25.62113372755653</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23653,13 +23653,13 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>71.47501190418862</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>44.21726859930326</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1179571.52824786</v>
+        <v>1178368.433020339</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1179571.52824786</v>
+        <v>1178368.433020339</v>
       </c>
     </row>
     <row r="4">
@@ -26317,7 +26317,7 @@
         <v>126232.5246653498</v>
       </c>
       <c r="D2" t="n">
-        <v>126232.5246653498</v>
+        <v>126232.5246653497</v>
       </c>
       <c r="E2" t="n">
         <v>111551.3163970803</v>
@@ -26326,34 +26326,34 @@
         <v>111551.3163970803</v>
       </c>
       <c r="G2" t="n">
-        <v>126232.5246653499</v>
+        <v>126232.5246653496</v>
       </c>
       <c r="H2" t="n">
         <v>126232.5246653496</v>
       </c>
       <c r="I2" t="n">
-        <v>126232.5246653496</v>
+        <v>126232.5246653497</v>
       </c>
       <c r="J2" t="n">
         <v>126232.5246653498</v>
       </c>
       <c r="K2" t="n">
-        <v>126232.5246653497</v>
+        <v>126232.5246653498</v>
       </c>
       <c r="L2" t="n">
-        <v>126232.5246653498</v>
+        <v>126232.5246653495</v>
       </c>
       <c r="M2" t="n">
-        <v>126232.5246653496</v>
+        <v>126232.5246653499</v>
       </c>
       <c r="N2" t="n">
         <v>126232.5246653496</v>
       </c>
       <c r="O2" t="n">
-        <v>126232.5246653496</v>
+        <v>126232.5246653495</v>
       </c>
       <c r="P2" t="n">
-        <v>126232.5246653495</v>
+        <v>126232.5246653498</v>
       </c>
     </row>
     <row r="3">
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918556</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062215</v>
+        <v>22558.4295340134</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972857</v>
+        <v>62456.24177539667</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081123</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277121</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840232</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840231</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387917</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,7 +26488,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-333341.6342505428</v>
+        <v>-328990.1884362481</v>
       </c>
       <c r="C6" t="n">
-        <v>-151136.6859586871</v>
+        <v>-155131.531402193</v>
       </c>
       <c r="D6" t="n">
-        <v>-158305.0069803587</v>
+        <v>-166041.2962037499</v>
       </c>
       <c r="E6" t="n">
-        <v>-179458.9322691693</v>
+        <v>-179668.6638158589</v>
       </c>
       <c r="F6" t="n">
-        <v>-67336.37079512479</v>
+        <v>-67546.10234181442</v>
       </c>
       <c r="G6" t="n">
-        <v>-152823.1541707985</v>
+        <v>-152823.1541707987</v>
       </c>
       <c r="H6" t="n">
         <v>-105397.8286341168</v>
@@ -26543,25 +26543,25 @@
         <v>-105397.8286341168</v>
       </c>
       <c r="J6" t="n">
-        <v>-318439.746231402</v>
+        <v>-311923.4610768291</v>
       </c>
       <c r="K6" t="n">
         <v>-111637.5970368996</v>
       </c>
       <c r="L6" t="n">
-        <v>-166820.1859715208</v>
+        <v>-170869.0231819931</v>
       </c>
       <c r="M6" t="n">
-        <v>-147598.6580937399</v>
+        <v>-148650.3531049278</v>
       </c>
       <c r="N6" t="n">
         <v>-105397.8286341168</v>
       </c>
       <c r="O6" t="n">
-        <v>-133165.522676888</v>
+        <v>-133165.5226768881</v>
       </c>
       <c r="P6" t="n">
-        <v>-105397.8286341169</v>
+        <v>-105397.8286341167</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,10 +26713,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095195</v>
+        <v>844.4391950293141</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660712</v>
+        <v>78.07030221924583</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551325</v>
+        <v>17.5800495428746</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773706</v>
+        <v>659.3622249971651</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407356</v>
+        <v>117.126871304279</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344364</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485868</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>276.8855194238924</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>151.893205427582</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27509,16 +27509,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>9.963768703238145</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>61.51507786325701</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>38.21122033605052</v>
       </c>
       <c r="E4" t="n">
-        <v>76.2479127717417</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>105.4740097826515</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>321.2361713363507</v>
       </c>
     </row>
     <row r="6">
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343378</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270624</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27783,16 +27783,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>114.9443603280885</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>129.0413895902531</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>63.73470910185813</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>232.8335800630311</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>93.84246681927621</v>
+        <v>141.1238664462528</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28746,19 +28746,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>5.636002634528637</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>5.636002634529063</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28995,16 +28995,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,31 +29217,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>35.71049010668816</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29299,13 +29299,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901221</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
@@ -29460,7 +29460,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
         <v>93.99127447431646</v>
@@ -29548,13 +29548,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>30.27223765901232</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>43.49509683160093</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566148</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000711</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861253708</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>106.8683420224745</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="38">
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668825</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30642,7 +30642,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082779</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668857</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30888,19 +30888,19 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34699,19 +34699,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>498.6899681413103</v>
       </c>
       <c r="O2" t="n">
-        <v>220.3437643303714</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34781,22 +34781,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>3.704701200682495</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344364</v>
+        <v>169.6749867099563</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344364</v>
+        <v>250.9894721029452</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>28.84046513805708</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>286.2513980419876</v>
       </c>
       <c r="N6" t="n">
-        <v>468.6684060776283</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>127.5938369108969</v>
       </c>
       <c r="L8" t="n">
-        <v>117.1778397212393</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35258,16 +35258,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>66.19388044736931</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35419,13 +35419,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35495,13 +35495,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>320.0552895810019</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O18" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133861</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36206,7 +36206,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>484.6198681696871</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907918</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101042</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36683,13 +36683,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>486.5023077495123</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>233.8188708867229</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963363</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
@@ -36844,13 +36844,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36917,19 +36917,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>189.6059785576899</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044895</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238013</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>530.7573573114478</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066588</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111302</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273782</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673918</v>
       </c>
       <c r="N33" t="n">
-        <v>287.7334829729929</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791203</v>
+        <v>82.7054323005508</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220911</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>206.887780065329</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>291.9083763974333</v>
       </c>
       <c r="O34" t="n">
-        <v>270.68470683715</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380293</v>
+        <v>233.866955910668</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102236</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634529181</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>216.4828246711707</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>173.4759251752883</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529496</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38184,19 +38184,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
